--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
@@ -534,34 +534,34 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.82795690095625</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H2">
-        <v>6.82795690095625</v>
+        <v>21.159065</v>
       </c>
       <c r="I2">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180576</v>
       </c>
       <c r="J2">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180575</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="N2">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2250572096185939</v>
+        <v>0.2565489611105555</v>
       </c>
       <c r="R2">
-        <v>0.2250572096185939</v>
+        <v>2.308940649995</v>
       </c>
       <c r="S2">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180576</v>
       </c>
       <c r="T2">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,34 +596,34 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.0506669061999</v>
+        <v>35.63076933333333</v>
       </c>
       <c r="H3">
-        <v>31.0506669061999</v>
+        <v>106.892308</v>
       </c>
       <c r="I3">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="J3">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="N3">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.02346522569981</v>
+        <v>1.296045480653778</v>
       </c>
       <c r="R3">
-        <v>1.02346522569981</v>
+        <v>11.664409325884</v>
       </c>
       <c r="S3">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="T3">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,34 +658,34 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.9144913797347</v>
+        <v>33.64714066666667</v>
       </c>
       <c r="H4">
-        <v>31.9144913797347</v>
+        <v>100.941422</v>
       </c>
       <c r="I4">
-        <v>0.4037446826191849</v>
+        <v>0.3821780750881576</v>
       </c>
       <c r="J4">
-        <v>0.4037446826191849</v>
+        <v>0.3821780750881575</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="N4">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.051937860842947</v>
+        <v>1.223892310322889</v>
       </c>
       <c r="R4">
-        <v>1.051937860842947</v>
+        <v>11.015030792906</v>
       </c>
       <c r="S4">
-        <v>0.4037446826191849</v>
+        <v>0.3821780750881576</v>
       </c>
       <c r="T4">
-        <v>0.4037446826191849</v>
+        <v>0.3821780750881575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,34 +720,34 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.54711793451305</v>
+        <v>8.048222000000001</v>
       </c>
       <c r="H5">
-        <v>7.54711793451305</v>
+        <v>24.144666</v>
       </c>
       <c r="I5">
-        <v>0.09547727704331849</v>
+        <v>0.09141501865831142</v>
       </c>
       <c r="J5">
-        <v>0.09547727704331849</v>
+        <v>0.09141501865831139</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="N5">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.2487615735778992</v>
+        <v>0.2927487097686667</v>
       </c>
       <c r="R5">
-        <v>0.2487615735778992</v>
+        <v>2.634738387918</v>
       </c>
       <c r="S5">
-        <v>0.09547727704331849</v>
+        <v>0.09141501865831142</v>
       </c>
       <c r="T5">
-        <v>0.09547727704331849</v>
+        <v>0.09141501865831139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,34 +782,34 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.70598780390472</v>
+        <v>3.661325</v>
       </c>
       <c r="H6">
-        <v>1.70598780390472</v>
+        <v>10.983975</v>
       </c>
       <c r="I6">
-        <v>0.02158215514840009</v>
+        <v>0.04158683659436109</v>
       </c>
       <c r="J6">
-        <v>0.02158215514840009</v>
+        <v>0.04158683659436108</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="N6">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.05623129442079196</v>
+        <v>0.1331782559916667</v>
       </c>
       <c r="R6">
-        <v>0.05623129442079196</v>
+        <v>1.198604303925</v>
       </c>
       <c r="S6">
-        <v>0.02158215514840009</v>
+        <v>0.04158683659436109</v>
       </c>
       <c r="T6">
-        <v>0.02158215514840009</v>
+        <v>0.04158683659436108</v>
       </c>
     </row>
   </sheetData>
